--- a/demo/py_outputs/villages/Kiraoli_Source_Map.xlsx
+++ b/demo/py_outputs/villages/Kiraoli_Source_Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L549"/>
+  <dimension ref="A1:M549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Distance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +553,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M2" t="n">
+        <v>29.11756681989715</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +610,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M3" t="n">
+        <v>28.02126671618618</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +667,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M4" t="n">
+        <v>28.14586450989363</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -710,6 +724,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M5" t="n">
+        <v>26.65834610477255</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +781,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M6" t="n">
+        <v>25.32691627336865</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -818,6 +838,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M7" t="n">
+        <v>29.38891587932748</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -872,6 +895,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M8" t="n">
+        <v>28.21696154315885</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -926,6 +952,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M9" t="n">
+        <v>28.27109581467196</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -980,6 +1009,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>25.34597811559224</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1066,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>28.76959340902715</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,6 +1123,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>29.97434460598634</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,6 +1180,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M13" t="n">
+        <v>29.89728006729021</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,6 +1237,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M14" t="n">
+        <v>29.37927140846445</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1250,6 +1294,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M15" t="n">
+        <v>28.66726237289441</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1304,6 +1351,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>29.25311920639544</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1358,6 +1408,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M17" t="n">
+        <v>28.72479731749719</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1412,6 +1465,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M18" t="n">
+        <v>27.16434843183042</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1466,6 +1522,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M19" t="n">
+        <v>26.84325161116215</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1520,6 +1579,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M20" t="n">
+        <v>27.62027402827071</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1574,6 +1636,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M21" t="n">
+        <v>28.22217946778936</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1628,6 +1693,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M22" t="n">
+        <v>28.46439158628193</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1682,6 +1750,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M23" t="n">
+        <v>29.82886780744663</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1736,6 +1807,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M24" t="n">
+        <v>29.29110628340931</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1790,6 +1864,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>28.60044847934116</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1921,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M26" t="n">
+        <v>28.88011934199619</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1898,6 +1978,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M27" t="n">
+        <v>27.00446925497176</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1952,6 +2035,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M28" t="n">
+        <v>27.18012879466502</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2006,6 +2092,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M29" t="n">
+        <v>25.2796169300928</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2060,6 +2149,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M30" t="n">
+        <v>24.70032384793241</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2114,6 +2206,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M31" t="n">
+        <v>25.65915095935061</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2168,6 +2263,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M32" t="n">
+        <v>24.66574839596566</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2222,6 +2320,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M33" t="n">
+        <v>23.74788140915339</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2276,6 +2377,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M34" t="n">
+        <v>23.71607251042519</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2330,6 +2434,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M35" t="n">
+        <v>23.21262696890766</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2384,6 +2491,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M36" t="n">
+        <v>21.99316655024943</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2438,6 +2548,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M37" t="n">
+        <v>21.24305157056579</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2492,6 +2605,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M38" t="n">
+        <v>19.34084406606918</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2546,6 +2662,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M39" t="n">
+        <v>21.08373750424878</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2600,6 +2719,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M40" t="n">
+        <v>22.96662627812677</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2654,6 +2776,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M41" t="n">
+        <v>22.72279570333039</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2708,6 +2833,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M42" t="n">
+        <v>22.79334760352859</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2762,6 +2890,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M43" t="n">
+        <v>28.62917058901861</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2816,6 +2947,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M44" t="n">
+        <v>29.96646051220711</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2870,6 +3004,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M45" t="n">
+        <v>28.08775535815482</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2924,6 +3061,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M46" t="n">
+        <v>27.59579968661538</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2978,6 +3118,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M47" t="n">
+        <v>26.4098246209577</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3032,6 +3175,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M48" t="n">
+        <v>26.8653622264201</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3086,6 +3232,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M49" t="n">
+        <v>25.88482797609332</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3140,6 +3289,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M50" t="n">
+        <v>24.6283607771245</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3194,6 +3346,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M51" t="n">
+        <v>24.2728691604645</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3248,6 +3403,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M52" t="n">
+        <v>21.26162580497182</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3302,6 +3460,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M53" t="n">
+        <v>20.5956496196523</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3356,6 +3517,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M54" t="n">
+        <v>18.99641493784407</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3410,6 +3574,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M55" t="n">
+        <v>18.21124188323715</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3464,6 +3631,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M56" t="n">
+        <v>15.8898802197361</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3518,6 +3688,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M57" t="n">
+        <v>16.05628498755863</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3572,6 +3745,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M58" t="n">
+        <v>21.74621234761099</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3626,6 +3802,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M59" t="n">
+        <v>22.01694526242172</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3680,6 +3859,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M60" t="n">
+        <v>21.07864412832891</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3734,6 +3916,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M61" t="n">
+        <v>20.66595779802594</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3788,6 +3973,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M62" t="n">
+        <v>23.91566761479407</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3842,6 +4030,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M63" t="n">
+        <v>22.69832687778008</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3896,6 +4087,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M64" t="n">
+        <v>22.24988609345459</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3950,6 +4144,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M65" t="n">
+        <v>25.62378408462251</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4004,6 +4201,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M66" t="n">
+        <v>20.92121746530638</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4058,6 +4258,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M67" t="n">
+        <v>18.79337071238422</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4112,6 +4315,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M68" t="n">
+        <v>18.27383983814331</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4166,6 +4372,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M69" t="n">
+        <v>18.66527810305615</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4220,6 +4429,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M70" t="n">
+        <v>18.43525387808516</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4274,6 +4486,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M71" t="n">
+        <v>29.52150764633499</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4328,6 +4543,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M72" t="n">
+        <v>28.91125536373285</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4382,6 +4600,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M73" t="n">
+        <v>28.83802741211584</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4436,6 +4657,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M74" t="n">
+        <v>29.86398062687977</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4490,6 +4714,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M75" t="n">
+        <v>29.06228459225992</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4544,6 +4771,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M76" t="n">
+        <v>29.08232751482426</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4598,6 +4828,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M77" t="n">
+        <v>28.16095029213895</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4652,6 +4885,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M78" t="n">
+        <v>26.88040033356529</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4706,6 +4942,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M79" t="n">
+        <v>28.08630863878741</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4760,6 +4999,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M80" t="n">
+        <v>28.3538033713982</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4814,6 +5056,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M81" t="n">
+        <v>29.06883868341069</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4868,6 +5113,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M82" t="n">
+        <v>29.72571580101703</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4922,6 +5170,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M83" t="n">
+        <v>28.81691764371852</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4976,6 +5227,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M84" t="n">
+        <v>28.86388115983525</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5030,6 +5284,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M85" t="n">
+        <v>28.59514380728112</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5084,6 +5341,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M86" t="n">
+        <v>26.96944608438193</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5138,6 +5398,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M87" t="n">
+        <v>26.96932461807548</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5192,6 +5455,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M88" t="n">
+        <v>25.60092645114455</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5246,6 +5512,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M89" t="n">
+        <v>25.13124620583941</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5300,6 +5569,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M90" t="n">
+        <v>23.66850590988096</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5354,6 +5626,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M91" t="n">
+        <v>22.46678882388419</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5408,6 +5683,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M92" t="n">
+        <v>26.35803781512865</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5462,6 +5740,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M93" t="n">
+        <v>25.68275703604991</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5516,6 +5797,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M94" t="n">
+        <v>26.7604935498192</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5570,6 +5854,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M95" t="n">
+        <v>27.34896780279808</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5624,6 +5911,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M96" t="n">
+        <v>25.56941502341602</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5678,6 +5968,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M97" t="n">
+        <v>24.99460117070463</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5732,6 +6025,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M98" t="n">
+        <v>24.02877724112309</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5786,6 +6082,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M99" t="n">
+        <v>25.03455315560531</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5840,6 +6139,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M100" t="n">
+        <v>23.21460434427169</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5894,6 +6196,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M101" t="n">
+        <v>23.55589328587282</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5948,6 +6253,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M102" t="n">
+        <v>25.08437490052717</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6002,6 +6310,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M103" t="n">
+        <v>26.24703657660823</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6056,6 +6367,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M104" t="n">
+        <v>25.12019841435933</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6110,6 +6424,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M105" t="n">
+        <v>23.47169431347254</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6164,6 +6481,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M106" t="n">
+        <v>22.75571042443137</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6218,6 +6538,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M107" t="n">
+        <v>22.39861055740629</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6272,6 +6595,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M108" t="n">
+        <v>21.40602733237052</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6326,6 +6652,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M109" t="n">
+        <v>21.79420382200854</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6380,6 +6709,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M110" t="n">
+        <v>20.48721420301481</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6434,6 +6766,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M111" t="n">
+        <v>19.26389977987671</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6488,6 +6823,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M112" t="n">
+        <v>18.68868880220685</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6542,6 +6880,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M113" t="n">
+        <v>18.45751572542297</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6596,6 +6937,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M114" t="n">
+        <v>17.59770364417074</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6650,6 +6994,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M115" t="n">
+        <v>17.52392617648163</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6704,6 +7051,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M116" t="n">
+        <v>18.01425217318857</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6758,6 +7108,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M117" t="n">
+        <v>19.61258059683915</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6812,6 +7165,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M118" t="n">
+        <v>20.13329385865808</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6866,6 +7222,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M119" t="n">
+        <v>18.4504898989765</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6920,6 +7279,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M120" t="n">
+        <v>19.32950242499414</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6974,6 +7336,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M121" t="n">
+        <v>17.49088673646852</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7028,6 +7393,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M122" t="n">
+        <v>16.16215252862645</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7082,6 +7450,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M123" t="n">
+        <v>17.96745353010894</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7136,6 +7507,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M124" t="n">
+        <v>17.33942044876776</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7190,6 +7564,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M125" t="n">
+        <v>16.56190121475865</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7244,6 +7621,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M126" t="n">
+        <v>15.75137785843383</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7298,6 +7678,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M127" t="n">
+        <v>15.64672532026686</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7352,6 +7735,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M128" t="n">
+        <v>25.58202224991552</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7406,6 +7792,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M129" t="n">
+        <v>23.87514192738688</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7460,6 +7849,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M130" t="n">
+        <v>22.57079201623696</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7514,6 +7906,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M131" t="n">
+        <v>20.36678723855239</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7568,6 +7963,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M132" t="n">
+        <v>19.50783047390824</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7622,6 +8020,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M133" t="n">
+        <v>20.58265833148904</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7676,6 +8077,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M134" t="n">
+        <v>22.02016132422771</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7730,6 +8134,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M135" t="n">
+        <v>20.84435883727651</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7784,6 +8191,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M136" t="n">
+        <v>21.43406665843233</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7838,6 +8248,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M137" t="n">
+        <v>27.06791281580711</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7892,6 +8305,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M138" t="n">
+        <v>25.68152303649388</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7946,6 +8362,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M139" t="n">
+        <v>23.71140807939382</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8000,6 +8419,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M140" t="n">
+        <v>21.57951482977325</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8054,6 +8476,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M141" t="n">
+        <v>20.96023563404898</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8108,6 +8533,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M142" t="n">
+        <v>18.92792472606181</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8162,6 +8590,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M143" t="n">
+        <v>19.07904881148553</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8216,6 +8647,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M144" t="n">
+        <v>19.14339480993069</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8270,6 +8704,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M145" t="n">
+        <v>16.98857023262422</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8324,6 +8761,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M146" t="n">
+        <v>18.013693370728</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8378,6 +8818,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M147" t="n">
+        <v>16.59166701811521</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8432,6 +8875,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M148" t="n">
+        <v>15.07714770458274</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8486,6 +8932,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M149" t="n">
+        <v>14.09462349747252</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8540,6 +8989,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M150" t="n">
+        <v>13.50706740672351</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8594,6 +9046,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M151" t="n">
+        <v>12.72566018348434</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8648,6 +9103,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M152" t="n">
+        <v>14.80376503609251</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8702,6 +9160,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M153" t="n">
+        <v>13.63158469482641</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8756,6 +9217,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M154" t="n">
+        <v>13.97725357297841</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8810,6 +9274,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M155" t="n">
+        <v>14.17149028070938</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8864,6 +9331,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M156" t="n">
+        <v>12.72440950142029</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8918,6 +9388,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M157" t="n">
+        <v>14.59744473783896</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8972,6 +9445,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M158" t="n">
+        <v>17.02072775254532</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9026,6 +9502,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M159" t="n">
+        <v>17.47723965222136</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9080,6 +9559,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M160" t="n">
+        <v>17.48679889953996</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9134,6 +9616,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M161" t="n">
+        <v>17.0719572041086</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9188,6 +9673,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M162" t="n">
+        <v>16.07485703938529</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9242,6 +9730,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M163" t="n">
+        <v>15.011250425231</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9296,6 +9787,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M164" t="n">
+        <v>11.65630741868252</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9350,6 +9844,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M165" t="n">
+        <v>28.20356377456287</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9404,6 +9901,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M166" t="n">
+        <v>28.66346984046856</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9458,6 +9958,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M167" t="n">
+        <v>27.59957246222583</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9512,6 +10015,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M168" t="n">
+        <v>28.59084542484258</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9566,6 +10072,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M169" t="n">
+        <v>27.33318570298263</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9620,6 +10129,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M170" t="n">
+        <v>24.63738050756342</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9674,6 +10186,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M171" t="n">
+        <v>22.01288548229731</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9728,6 +10243,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M172" t="n">
+        <v>22.63712885143363</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9782,6 +10300,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M173" t="n">
+        <v>23.94994137346311</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9836,6 +10357,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M174" t="n">
+        <v>26.83832515026005</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9890,6 +10414,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M175" t="n">
+        <v>29.68407893148728</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9944,6 +10471,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M176" t="n">
+        <v>29.64951295845211</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9998,6 +10528,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M177" t="n">
+        <v>29.19458479117883</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10052,6 +10585,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M178" t="n">
+        <v>16.02271947665244</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10106,6 +10642,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M179" t="n">
+        <v>16.61208239044202</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10160,6 +10699,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M180" t="n">
+        <v>20.58323757238407</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10214,6 +10756,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M181" t="n">
+        <v>19.84579925561885</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10268,6 +10813,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M182" t="n">
+        <v>20.36122743966424</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10322,6 +10870,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M183" t="n">
+        <v>21.26859227756616</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10376,6 +10927,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M184" t="n">
+        <v>21.42603557538791</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10430,6 +10984,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M185" t="n">
+        <v>19.9288557349433</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10484,6 +11041,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M186" t="n">
+        <v>24.64145088680893</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10538,6 +11098,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M187" t="n">
+        <v>25.05285806895791</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10592,6 +11155,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M188" t="n">
+        <v>26.32065724874274</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10646,6 +11212,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M189" t="n">
+        <v>26.72390926307101</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10697,8 +11266,11 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>13.88338974722369</v>
       </c>
     </row>
     <row r="191">
@@ -10754,6 +11326,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M191" t="n">
+        <v>14.44944741834368</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10808,6 +11383,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M192" t="n">
+        <v>15.01804863406217</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10862,6 +11440,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M193" t="n">
+        <v>13.69168842918388</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10916,6 +11497,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M194" t="n">
+        <v>13.38787868599874</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10967,8 +11551,11 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>12.07204193041093</v>
       </c>
     </row>
     <row r="196">
@@ -11024,6 +11611,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M196" t="n">
+        <v>10.52933292869252</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11078,6 +11668,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M197" t="n">
+        <v>12.17209831105035</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11129,8 +11722,11 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>10.26269459246426</v>
       </c>
     </row>
     <row r="199">
@@ -11186,6 +11782,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M199" t="n">
+        <v>8.661866303032998</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11240,6 +11839,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M200" t="n">
+        <v>10.95234672715304</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11294,6 +11896,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M201" t="n">
+        <v>9.571318207842028</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11348,6 +11953,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M202" t="n">
+        <v>11.01207871915285</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11402,6 +12010,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M203" t="n">
+        <v>11.80619867144845</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11456,6 +12067,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M204" t="n">
+        <v>11.89783014934373</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11510,6 +12124,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M205" t="n">
+        <v>13.57804863624516</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11564,6 +12181,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M206" t="n">
+        <v>16.9764011711178</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11618,6 +12238,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M207" t="n">
+        <v>17.59446989200721</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11672,6 +12295,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M208" t="n">
+        <v>19.48445042261446</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11726,6 +12352,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M209" t="n">
+        <v>19.35699612733924</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11780,6 +12409,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M210" t="n">
+        <v>20.37173557705337</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11834,6 +12466,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M211" t="n">
+        <v>15.31445536856554</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11888,6 +12523,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M212" t="n">
+        <v>15.13748351580531</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11939,8 +12577,11 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>15.02401469161694</v>
       </c>
     </row>
     <row r="214">
@@ -11996,6 +12637,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M214" t="n">
+        <v>13.7343649967877</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12050,6 +12694,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M215" t="n">
+        <v>15.6213644282408</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12104,6 +12751,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M216" t="n">
+        <v>17.33919851079478</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12158,6 +12808,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M217" t="n">
+        <v>18.4786010631212</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12209,8 +12862,11 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>17.52262549418898</v>
       </c>
     </row>
     <row r="219">
@@ -12266,6 +12922,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M219" t="n">
+        <v>18.22128318355276</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12320,6 +12979,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M220" t="n">
+        <v>12.48215903240965</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12371,8 +13033,11 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>13.17912726142759</v>
       </c>
     </row>
     <row r="222">
@@ -12428,6 +13093,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M222" t="n">
+        <v>15.80503968580721</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12482,6 +13150,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M223" t="n">
+        <v>12.88131460329341</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12536,6 +13207,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M224" t="n">
+        <v>15.41228989098707</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12590,6 +13264,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M225" t="n">
+        <v>19.64597183972242</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12644,6 +13321,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M226" t="n">
+        <v>21.4679983336937</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12698,6 +13378,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M227" t="n">
+        <v>22.47251213415897</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12752,6 +13435,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M228" t="n">
+        <v>22.90748543174212</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12806,6 +13492,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M229" t="n">
+        <v>24.27277617363041</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12860,6 +13549,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M230" t="n">
+        <v>23.88051524539299</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12914,6 +13606,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M231" t="n">
+        <v>21.74776151065266</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12968,6 +13663,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M232" t="n">
+        <v>19.87168995615746</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13022,6 +13720,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M233" t="n">
+        <v>20.37226499317832</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13076,6 +13777,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M234" t="n">
+        <v>23.94639257995022</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13130,6 +13834,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M235" t="n">
+        <v>24.56923475786088</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13184,6 +13891,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M236" t="n">
+        <v>24.16936172373461</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13238,6 +13948,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M237" t="n">
+        <v>20.44928078400759</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13292,6 +14005,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M238" t="n">
+        <v>26.82774051089197</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13346,6 +14062,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M239" t="n">
+        <v>28.02770669976642</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13400,6 +14119,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M240" t="n">
+        <v>27.09860556839185</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13454,6 +14176,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M241" t="n">
+        <v>25.74560675984389</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13508,6 +14233,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M242" t="n">
+        <v>24.82019258101781</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13562,6 +14290,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M243" t="n">
+        <v>25.80646598890201</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13616,6 +14347,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M244" t="n">
+        <v>27.489610878095</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13670,6 +14404,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M245" t="n">
+        <v>25.37512507802495</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13724,6 +14461,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M246" t="n">
+        <v>25.89898222480493</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13778,6 +14518,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M247" t="n">
+        <v>26.01508801115489</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13832,6 +14575,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M248" t="n">
+        <v>26.95713729285152</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13886,6 +14632,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M249" t="n">
+        <v>28.60528749045779</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13940,6 +14689,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M250" t="n">
+        <v>27.75964949028721</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13994,6 +14746,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M251" t="n">
+        <v>28.05890201536683</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14048,6 +14803,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M252" t="n">
+        <v>28.85673416288249</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14102,6 +14860,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M253" t="n">
+        <v>29.12452548981421</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14156,6 +14917,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M254" t="n">
+        <v>29.8248760075011</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14210,6 +14974,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M255" t="n">
+        <v>28.88472492495352</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14264,6 +15031,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M256" t="n">
+        <v>28.63501376953049</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14318,6 +15088,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M257" t="n">
+        <v>29.05291290706973</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14372,6 +15145,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M258" t="n">
+        <v>27.36571016586512</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14426,6 +15202,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M259" t="n">
+        <v>29.49685301875926</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14480,6 +15259,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M260" t="n">
+        <v>29.17607172028392</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14534,6 +15316,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M261" t="n">
+        <v>28.45359945334301</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14588,6 +15373,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M262" t="n">
+        <v>29.91442501842161</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14642,6 +15430,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M263" t="n">
+        <v>15.75706317123448</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14696,6 +15487,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M264" t="n">
+        <v>16.50307937793158</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14750,6 +15544,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M265" t="n">
+        <v>15.18839260485577</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14804,6 +15601,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M266" t="n">
+        <v>16.49534989384438</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14858,6 +15658,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M267" t="n">
+        <v>17.48560341688848</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14912,6 +15715,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M268" t="n">
+        <v>22.58820632533422</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14966,6 +15772,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M269" t="n">
+        <v>24.03341871625264</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15020,6 +15829,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M270" t="n">
+        <v>21.17775398316735</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15074,6 +15886,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M271" t="n">
+        <v>18.99918527981578</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15128,6 +15943,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M272" t="n">
+        <v>17.40863845188293</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15182,6 +16000,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M273" t="n">
+        <v>21.12121047097251</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15236,6 +16057,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M274" t="n">
+        <v>15.74268817084713</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15290,6 +16114,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M275" t="n">
+        <v>15.02389877656308</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15344,6 +16171,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M276" t="n">
+        <v>16.79999526176783</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15398,6 +16228,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M277" t="n">
+        <v>17.23190897400896</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15452,6 +16285,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M278" t="n">
+        <v>18.67773478481378</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15506,6 +16342,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M279" t="n">
+        <v>16.8294889713559</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15560,6 +16399,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M280" t="n">
+        <v>15.7934273505173</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15614,6 +16456,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M281" t="n">
+        <v>14.5343713367032</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15668,6 +16513,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M282" t="n">
+        <v>13.48974293156341</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15722,6 +16570,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M283" t="n">
+        <v>12.51761737131665</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15776,6 +16627,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M284" t="n">
+        <v>10.34208401001164</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15830,6 +16684,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M285" t="n">
+        <v>13.08579503175137</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15884,6 +16741,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M286" t="n">
+        <v>26.65825543593789</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15938,6 +16798,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M287" t="n">
+        <v>25.33659811307788</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15992,6 +16855,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M288" t="n">
+        <v>25.99636172556784</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -16046,6 +16912,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M289" t="n">
+        <v>23.43917647579062</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -16100,6 +16969,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M290" t="n">
+        <v>21.29527883959922</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -16154,6 +17026,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M291" t="n">
+        <v>20.17781010506388</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -16208,6 +17083,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M292" t="n">
+        <v>19.23796465359388</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -16262,6 +17140,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M293" t="n">
+        <v>18.59468384843488</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16316,6 +17197,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M294" t="n">
+        <v>20.57811800855443</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -16370,6 +17254,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M295" t="n">
+        <v>22.13038063443873</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16424,6 +17311,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M296" t="n">
+        <v>23.63132699233185</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -16478,6 +17368,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M297" t="n">
+        <v>20.72626423730239</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16532,6 +17425,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M298" t="n">
+        <v>21.17063788904897</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16586,6 +17482,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M299" t="n">
+        <v>19.4125353901313</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16640,6 +17539,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M300" t="n">
+        <v>17.86634662908878</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16694,6 +17596,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M301" t="n">
+        <v>16.85039561755009</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16748,6 +17653,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M302" t="n">
+        <v>14.71726204808056</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16802,6 +17710,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M303" t="n">
+        <v>15.63785315869151</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16856,6 +17767,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M304" t="n">
+        <v>15.34368692909739</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16910,6 +17824,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M305" t="n">
+        <v>18.99686153226579</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16964,6 +17881,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M306" t="n">
+        <v>17.49564326604073</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -17018,6 +17938,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M307" t="n">
+        <v>16.16556039709549</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -17072,6 +17995,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M308" t="n">
+        <v>17.36012298346096</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -17126,6 +18052,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M309" t="n">
+        <v>12.90532823665504</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -17180,6 +18109,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M310" t="n">
+        <v>11.38149176784192</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -17234,6 +18166,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M311" t="n">
+        <v>10.07112842648213</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -17288,6 +18223,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M312" t="n">
+        <v>9.690410395783546</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -17342,6 +18280,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M313" t="n">
+        <v>11.18114791974142</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -17396,6 +18337,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M314" t="n">
+        <v>13.21409999884783</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -17450,6 +18394,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M315" t="n">
+        <v>15.11234612554452</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -17504,6 +18451,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M316" t="n">
+        <v>15.65302325990104</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -17558,6 +18508,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M317" t="n">
+        <v>14.31376731219158</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -17612,6 +18565,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M318" t="n">
+        <v>13.26834966714712</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17666,6 +18622,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M319" t="n">
+        <v>11.50595428477612</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17720,6 +18679,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M320" t="n">
+        <v>14.3104098762794</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17774,6 +18736,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M321" t="n">
+        <v>13.77392140785032</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17828,6 +18793,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M322" t="n">
+        <v>12.96763497046246</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17882,6 +18850,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M323" t="n">
+        <v>11.4353050660955</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17936,6 +18907,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M324" t="n">
+        <v>12.21995564995769</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17990,6 +18964,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M325" t="n">
+        <v>11.26289652048183</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -18044,6 +19021,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M326" t="n">
+        <v>11.49991080337123</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -18098,6 +19078,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M327" t="n">
+        <v>10.1488318730396</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -18152,6 +19135,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M328" t="n">
+        <v>9.874849343270737</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -18206,6 +19192,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M329" t="n">
+        <v>8.980167724675141</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -18260,6 +19249,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M330" t="n">
+        <v>8.105607974701536</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -18314,6 +19306,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M331" t="n">
+        <v>9.495265468588215</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -18368,6 +19363,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M332" t="n">
+        <v>7.136690712508756</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -18422,6 +19420,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M333" t="n">
+        <v>8.478986324485676</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -18476,6 +19477,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M334" t="n">
+        <v>5.971975761503813</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -18530,6 +19534,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M335" t="n">
+        <v>4.358953464071154</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -18584,6 +19591,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M336" t="n">
+        <v>3.291927972116172</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -18638,6 +19648,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M337" t="n">
+        <v>4.012449484608358</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -18692,6 +19705,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M338" t="n">
+        <v>4.333007099023448</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -18746,6 +19762,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M339" t="n">
+        <v>6.532744710421767</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -18800,6 +19819,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M340" t="n">
+        <v>5.474770432147607</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -18854,6 +19876,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M341" t="n">
+        <v>8.204040454445716</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -18908,6 +19933,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M342" t="n">
+        <v>4.192051319670182</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -18962,6 +19990,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M343" t="n">
+        <v>6.471415601542502</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -19016,6 +20047,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M344" t="n">
+        <v>7.36999408127467</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -19070,6 +20104,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M345" t="n">
+        <v>8.762112600846109</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -19124,6 +20161,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M346" t="n">
+        <v>8.323145874626318</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -19178,6 +20218,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M347" t="n">
+        <v>9.3572793593012</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -19232,6 +20275,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M348" t="n">
+        <v>11.4046673468237</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -19286,6 +20332,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M349" t="n">
+        <v>15.5873741973787</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -19340,6 +20389,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M350" t="n">
+        <v>10.63872535626122</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -19394,6 +20446,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M351" t="n">
+        <v>12.52620566531817</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19448,6 +20503,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M352" t="n">
+        <v>11.71547188712319</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -19502,6 +20560,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M353" t="n">
+        <v>15.62382468454347</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -19556,6 +20617,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M354" t="n">
+        <v>13.18210481566964</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -19610,6 +20674,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M355" t="n">
+        <v>11.8683893779285</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -19664,6 +20731,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M356" t="n">
+        <v>12.81206171374076</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -19718,6 +20788,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M357" t="n">
+        <v>14.59519541033613</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -19772,6 +20845,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M358" t="n">
+        <v>13.17418734224463</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -19826,6 +20902,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M359" t="n">
+        <v>12.7766871299745</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -19880,6 +20959,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M360" t="n">
+        <v>11.45218145260306</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -19934,6 +21016,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M361" t="n">
+        <v>10.707686220951</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -19988,6 +21073,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M362" t="n">
+        <v>11.119416193991</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -20042,6 +21130,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M363" t="n">
+        <v>11.46807506201893</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -20096,6 +21187,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M364" t="n">
+        <v>10.43207260666138</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -20150,6 +21244,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M365" t="n">
+        <v>9.780136659045493</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -20204,6 +21301,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M366" t="n">
+        <v>7.461932142320932</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -20258,6 +21358,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M367" t="n">
+        <v>10.09124417978973</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -20312,6 +21415,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M368" t="n">
+        <v>8.024818776942736</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -20363,8 +21469,11 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M369" t="n">
+        <v>9.872097245488678</v>
       </c>
     </row>
     <row r="370">
@@ -20417,8 +21526,11 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M370" t="n">
+        <v>10.58919922589132</v>
       </c>
     </row>
     <row r="371">
@@ -20474,6 +21586,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M371" t="n">
+        <v>12.55550909618739</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -20528,6 +21643,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M372" t="n">
+        <v>14.6894243786053</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -20582,6 +21700,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M373" t="n">
+        <v>16.79259137887325</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -20636,6 +21757,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M374" t="n">
+        <v>13.09210487387035</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -20687,8 +21811,11 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M375" t="n">
+        <v>11.5471292834087</v>
       </c>
     </row>
     <row r="376">
@@ -20744,6 +21871,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M376" t="n">
+        <v>18.74433421357715</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -20798,6 +21928,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M377" t="n">
+        <v>17.90037312166702</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -20852,6 +21985,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M378" t="n">
+        <v>12.12713569110426</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -20906,6 +22042,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M379" t="n">
+        <v>13.36859734435022</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -20957,8 +22096,11 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M380" t="n">
+        <v>10.04335367573105</v>
       </c>
     </row>
     <row r="381">
@@ -21014,6 +22156,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M381" t="n">
+        <v>11.19802537140892</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -21065,8 +22210,11 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M382" t="n">
+        <v>9.594350160709206</v>
       </c>
     </row>
     <row r="383">
@@ -21122,6 +22270,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M383" t="n">
+        <v>8.016061907295452</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -21176,6 +22327,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M384" t="n">
+        <v>8.545024868521775</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -21230,6 +22384,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M385" t="n">
+        <v>10.7541776949629</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -21284,6 +22441,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M386" t="n">
+        <v>9.332846991257041</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -21338,6 +22498,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M387" t="n">
+        <v>11.3056194481047</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -21392,6 +22555,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M388" t="n">
+        <v>7.266911134344903</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -21446,6 +22612,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M389" t="n">
+        <v>8.381877702380427</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -21500,6 +22669,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M390" t="n">
+        <v>4.829780939985758</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -21554,6 +22726,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M391" t="n">
+        <v>6.201812612642436</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -21608,6 +22783,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M392" t="n">
+        <v>7.22207879785999</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -21662,6 +22840,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M393" t="n">
+        <v>8.709503116982376</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -21716,6 +22897,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M394" t="n">
+        <v>6.92658537163324</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -21770,6 +22954,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M395" t="n">
+        <v>6.800020959542625</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -21824,6 +23011,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M396" t="n">
+        <v>5.69963856583904</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -21878,6 +23068,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M397" t="n">
+        <v>4.714955292063117</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -21932,6 +23125,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M398" t="n">
+        <v>4.374012134576436</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -21986,6 +23182,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M399" t="n">
+        <v>10.48505305447038</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -22040,6 +23239,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M400" t="n">
+        <v>10.61011856260445</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -22094,6 +23296,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M401" t="n">
+        <v>10.19478511432786</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -22148,6 +23353,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M402" t="n">
+        <v>9.633016870901731</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -22202,6 +23410,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M403" t="n">
+        <v>8.610862135334518</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -22256,6 +23467,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M404" t="n">
+        <v>7.516686686886025</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -22310,6 +23524,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M405" t="n">
+        <v>8.144385769050754</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -22364,6 +23581,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M406" t="n">
+        <v>6.213724432384256</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -22418,6 +23638,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M407" t="n">
+        <v>4.416836731178681</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -22472,6 +23695,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M408" t="n">
+        <v>2.674454432094241</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -22526,6 +23752,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M409" t="n">
+        <v>2.382920599690527</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -22580,6 +23809,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M410" t="n">
+        <v>1.457070228286406</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -22634,6 +23866,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M411" t="n">
+        <v>2.756265961137911</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -22688,6 +23923,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M412" t="n">
+        <v>1.425323066445354</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -22742,6 +23980,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M413" t="n">
+        <v>2.265415210095119</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -22796,6 +24037,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M414" t="n">
+        <v>3.141772421979158</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -22850,6 +24094,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M415" t="n">
+        <v>3.515369021635223</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -22904,6 +24151,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M416" t="n">
+        <v>4.150758994934934</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -22958,6 +24208,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M417" t="n">
+        <v>5.709765032475402</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -23012,6 +24265,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M418" t="n">
+        <v>4.396531841858197</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -23066,6 +24322,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M419" t="n">
+        <v>4.883982728351192</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -23120,6 +24379,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M420" t="n">
+        <v>6.165886891789317</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -23174,6 +24436,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M421" t="n">
+        <v>6.533779244601236</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -23225,8 +24490,11 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M422" t="n">
+        <v>7.887026315724439</v>
       </c>
     </row>
     <row r="423">
@@ -23282,6 +24550,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M423" t="n">
+        <v>7.432328018951806</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -23336,6 +24607,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M424" t="n">
+        <v>8.894670860740748</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -23390,6 +24664,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M425" t="n">
+        <v>9.588086452821496</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -23444,6 +24721,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M426" t="n">
+        <v>10.39056582523964</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -23498,6 +24778,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M427" t="n">
+        <v>11.1919006328222</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -23552,6 +24835,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M428" t="n">
+        <v>10.29804668165413</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -23606,6 +24892,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M429" t="n">
+        <v>9.12494964764749</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -23660,6 +24949,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M430" t="n">
+        <v>7.436318445823296</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -23714,6 +25006,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M431" t="n">
+        <v>6.064293781924683</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -23768,6 +25063,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M432" t="n">
+        <v>6.480059988214553</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -23822,6 +25120,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M433" t="n">
+        <v>7.12442858113149</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -23876,6 +25177,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M434" t="n">
+        <v>8.780779090897521</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -23930,6 +25234,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M435" t="n">
+        <v>12.61055902109956</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -23984,6 +25291,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M436" t="n">
+        <v>11.13217076576985</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -24038,6 +25348,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M437" t="n">
+        <v>9.435263239950736</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -24092,6 +25405,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M438" t="n">
+        <v>10.69569315035024</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -24143,8 +25459,11 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M439" t="n">
+        <v>9.148137012024932</v>
       </c>
     </row>
     <row r="440">
@@ -24200,6 +25519,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M440" t="n">
+        <v>10.41293281087269</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -24254,6 +25576,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M441" t="n">
+        <v>11.76327274649756</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -24308,6 +25633,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M442" t="n">
+        <v>12.82095520745458</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -24362,6 +25690,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M443" t="n">
+        <v>14.26407976981541</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -24416,6 +25747,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M444" t="n">
+        <v>26.1020543052214</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -24470,6 +25804,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M445" t="n">
+        <v>24.2475132463666</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -24524,6 +25861,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M446" t="n">
+        <v>27.5848463917592</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -24578,6 +25918,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M447" t="n">
+        <v>27.60854641871682</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -24632,6 +25975,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M448" t="n">
+        <v>29.92735752030653</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -24686,6 +26032,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M449" t="n">
+        <v>21.82440159847124</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -24740,6 +26089,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M450" t="n">
+        <v>24.62166696531297</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -24794,6 +26146,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M451" t="n">
+        <v>29.94331593562449</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -24848,6 +26203,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M452" t="n">
+        <v>26.76989900274573</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -24902,6 +26260,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M453" t="n">
+        <v>28.8508044434472</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -24956,6 +26317,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M454" t="n">
+        <v>21.06352707859513</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -25010,6 +26374,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M455" t="n">
+        <v>20.75044156244776</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -25064,6 +26431,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M456" t="n">
+        <v>23.70028777683083</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -25118,6 +26488,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M457" t="n">
+        <v>25.08523357010491</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -25172,6 +26545,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M458" t="n">
+        <v>23.1211731035389</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -25226,6 +26602,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M459" t="n">
+        <v>20.99762859112931</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -25280,6 +26659,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M460" t="n">
+        <v>21.91954589564484</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -25334,6 +26716,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M461" t="n">
+        <v>22.35317880868852</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -25388,6 +26773,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M462" t="n">
+        <v>23.24905336961279</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -25442,6 +26830,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M463" t="n">
+        <v>23.03749800474719</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -25496,6 +26887,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M464" t="n">
+        <v>18.62781624282755</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -25550,6 +26944,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M465" t="n">
+        <v>19.33813441900141</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -25601,8 +26998,11 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M466" t="n">
+        <v>17.83718014823157</v>
       </c>
     </row>
     <row r="467">
@@ -25658,6 +27058,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M467" t="n">
+        <v>14.06182633642423</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -25712,6 +27115,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M468" t="n">
+        <v>14.72768417293536</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -25766,6 +27172,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M469" t="n">
+        <v>17.94104902203592</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -25820,6 +27229,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M470" t="n">
+        <v>19.65393058757626</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -25874,6 +27286,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M471" t="n">
+        <v>19.63074563722961</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -25928,6 +27343,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M472" t="n">
+        <v>13.67827507906044</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -25982,6 +27400,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M473" t="n">
+        <v>16.02032156050634</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -26036,6 +27457,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M474" t="n">
+        <v>15.88886468974895</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -26090,6 +27514,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M475" t="n">
+        <v>14.40488762903741</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -26144,6 +27571,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M476" t="n">
+        <v>16.42008435763636</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -26198,6 +27628,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M477" t="n">
+        <v>17.43884610746465</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -26249,8 +27682,11 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M478" t="n">
+        <v>15.25260429909809</v>
       </c>
     </row>
     <row r="479">
@@ -26303,8 +27739,11 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M479" t="n">
+        <v>16.70563900094994</v>
       </c>
     </row>
     <row r="480">
@@ -26360,6 +27799,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M480" t="n">
+        <v>18.49149709795592</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -26414,6 +27856,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M481" t="n">
+        <v>19.39291603615171</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -26465,8 +27910,11 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M482" t="n">
+        <v>21.00026318202072</v>
       </c>
     </row>
     <row r="483">
@@ -26522,6 +27970,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M483" t="n">
+        <v>18.48364339157993</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -26576,6 +28027,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M484" t="n">
+        <v>17.64226331467021</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -26627,8 +28081,11 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M485" t="n">
+        <v>17.38084308395701</v>
       </c>
     </row>
     <row r="486">
@@ -26684,6 +28141,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M486" t="n">
+        <v>19.36855314374258</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -26738,6 +28198,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M487" t="n">
+        <v>20.3508334618774</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -26792,6 +28255,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M488" t="n">
+        <v>21.53100555213146</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -26846,6 +28312,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M489" t="n">
+        <v>20.97095098562696</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -26900,6 +28369,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M490" t="n">
+        <v>20.67018302555275</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -26954,6 +28426,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M491" t="n">
+        <v>23.56406871366272</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -27008,6 +28483,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M492" t="n">
+        <v>23.70341264582247</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -27062,6 +28540,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M493" t="n">
+        <v>24.24016491112948</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -27116,6 +28597,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M494" t="n">
+        <v>22.97445270499783</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -27170,6 +28654,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M495" t="n">
+        <v>24.84011234963946</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -27224,6 +28711,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M496" t="n">
+        <v>22.10508666928681</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -27278,6 +28768,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M497" t="n">
+        <v>23.48346646861713</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -27332,6 +28825,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M498" t="n">
+        <v>24.8836273907059</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -27386,6 +28882,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M499" t="n">
+        <v>26.08258854756338</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -27440,6 +28939,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M500" t="n">
+        <v>26.94535107115474</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -27494,6 +28996,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M501" t="n">
+        <v>28.83191575814142</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -27548,6 +29053,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M502" t="n">
+        <v>17.92137190783194</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -27602,6 +29110,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M503" t="n">
+        <v>20.2556532839961</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -27656,6 +29167,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M504" t="n">
+        <v>20.17008792096171</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -27710,6 +29224,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M505" t="n">
+        <v>19.59228555785272</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -27764,6 +29281,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M506" t="n">
+        <v>21.11587570348314</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -27818,6 +29338,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M507" t="n">
+        <v>22.60372049342539</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -27872,6 +29395,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M508" t="n">
+        <v>25.71172703832388</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -27926,6 +29452,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M509" t="n">
+        <v>24.59652455723953</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -27980,6 +29509,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M510" t="n">
+        <v>22.69629526812696</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -28034,6 +29566,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M511" t="n">
+        <v>23.75697701451434</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -28088,6 +29623,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M512" t="n">
+        <v>25.2512276103689</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -28142,6 +29680,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M513" t="n">
+        <v>25.53573367203839</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -28196,6 +29737,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M514" t="n">
+        <v>26.60313034673366</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -28250,6 +29794,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M515" t="n">
+        <v>23.45270729526705</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -28304,6 +29851,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M516" t="n">
+        <v>27.10116817822882</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -28358,6 +29908,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M517" t="n">
+        <v>26.82135520536132</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -28412,6 +29965,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M518" t="n">
+        <v>27.26561485203468</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -28466,6 +30022,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M519" t="n">
+        <v>27.44085109787536</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -28520,6 +30079,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M520" t="n">
+        <v>29.5076642363452</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -28574,6 +30136,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M521" t="n">
+        <v>28.53603564508776</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -28628,6 +30193,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M522" t="n">
+        <v>29.21627578605259</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -28682,6 +30250,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M523" t="n">
+        <v>27.68462731133853</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -28736,6 +30307,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M524" t="n">
+        <v>28.57492800022814</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -28790,6 +30364,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M525" t="n">
+        <v>28.84006969146535</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -28844,6 +30421,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M526" t="n">
+        <v>29.44388822785101</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -28898,6 +30478,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M527" t="n">
+        <v>22.09071068834333</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -28952,6 +30535,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M528" t="n">
+        <v>23.44484452603461</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -29006,6 +30592,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M529" t="n">
+        <v>25.17197595081235</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -29060,6 +30649,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M530" t="n">
+        <v>22.96496896586759</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -29114,6 +30706,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M531" t="n">
+        <v>24.27584063081387</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -29168,6 +30763,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M532" t="n">
+        <v>25.38445143483666</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -29222,6 +30820,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M533" t="n">
+        <v>26.66275234311921</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -29276,6 +30877,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M534" t="n">
+        <v>26.56827607559988</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -29330,6 +30934,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M535" t="n">
+        <v>28.93275336466475</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -29384,6 +30991,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M536" t="n">
+        <v>29.13792548993499</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -29438,6 +31048,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M537" t="n">
+        <v>26.5161281480274</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -29492,6 +31105,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M538" t="n">
+        <v>28.9917739296197</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -29546,6 +31162,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M539" t="n">
+        <v>29.76247817542705</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -29600,6 +31219,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M540" t="n">
+        <v>28.82422945311884</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -29654,6 +31276,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M541" t="n">
+        <v>19.97505184414851</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -29708,6 +31333,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M542" t="n">
+        <v>23.89270360557359</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -29762,6 +31390,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M543" t="n">
+        <v>23.62095695209328</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -29816,6 +31447,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M544" t="n">
+        <v>24.76558905573359</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -29870,6 +31504,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M545" t="n">
+        <v>23.2959575995434</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -29924,6 +31561,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M546" t="n">
+        <v>5.053328106742919</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -29978,6 +31618,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M547" t="n">
+        <v>0.2761042851358005</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -30032,6 +31675,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M548" t="n">
+        <v>12.53009473389436</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -30085,6 +31731,9 @@
         <is>
           <t>Yet-To-Visit</t>
         </is>
+      </c>
+      <c r="M549" t="n">
+        <v>21.84080689619431</v>
       </c>
     </row>
   </sheetData>
